--- a/medicine/Psychotrope/Brasserie_de_Colmar/Brasserie_de_Colmar.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_Colmar/Brasserie_de_Colmar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie de Colmar est une ancienne brasserie alsacienne installée à Colmar, dans le Haut-Rhin. Fondée en 1919, elle est fermée en 1975 puis relancée dans les années 2010.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1919, plusieurs brasseries colmariennes, Ackerbräu, Bilger-Schmidt et Molly, se regroupent pour former la brasserie de Colmar.
 Celle-ci s'implante sur un vaste terrain au nord de la ville en 1920.
@@ -525,7 +539,7 @@
 Heineken acquiert l'Albra en 1972.
 La brasserie de Colmar est définitivement fermée le 30 avril 1975. Les bâtiments de la brasserie sont démolis en 1978.
 La bière Colmar Pils a été commercialisée jusqu'en 1978.
-Dans les années 2010, la Colmar Pils est à nouveau produite par la brasserie artisanale Saint-Alphonse de Vogelgrun[1]. Le logo figurant une masse d'armes, emprunté au blason de la ville, est repris et son dessin modernisé.
+Dans les années 2010, la Colmar Pils est à nouveau produite par la brasserie artisanale Saint-Alphonse de Vogelgrun. Le logo figurant une masse d'armes, emprunté au blason de la ville, est repris et son dessin modernisé.
 </t>
         </is>
       </c>
